--- a/database/industries/folad/hormoz/product/monthly_seprated.xlsx
+++ b/database/industries/folad/hormoz/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="88">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3296,77 +3296,77 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>16863</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>16863</v>
+        <v>15256</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>15256</v>
+        <v>17632</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>17632</v>
+        <v>16673</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>16673</v>
+        <v>18845</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>18845</v>
+        <v>10204</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>10204</v>
+        <v>10965</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>10965</v>
+        <v>10999</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>10999</v>
+        <v>26929</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>26929</v>
+        <v>2410</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>2410</v>
+        <v>2378</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>2378</v>
+        <v>4038</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>4038</v>
+        <v>2594</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>2594</v>
+        <v>18894</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>18894</v>
+        <v>15002</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>15002</v>
+        <v>5411</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>5411</v>
+        <v>11407</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>11407</v>
+        <v>16490</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>16490</v>
+        <v>15380</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>15380</v>
+        <v>19859</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>19859</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>0</v>
+        <v>14435</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>14435</v>
+        <v>12166</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>12166</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="13" t="n">
         <v>0</v>
@@ -3455,107 +3455,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>111601</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>111601</v>
+        <v>118483</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>118483</v>
+        <v>137391</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>137391</v>
+        <v>132564</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>132564</v>
+        <v>138145</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>138145</v>
+        <v>139478</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>139478</v>
+        <v>140624</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>140624</v>
+        <v>142273</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>142273</v>
+        <v>141338</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>141338</v>
+        <v>145150</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>145150</v>
+        <v>130434</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>130434</v>
+        <v>113883</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>113883</v>
+        <v>70961</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>70961</v>
+        <v>39230</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>39230</v>
+        <v>117862</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>117862</v>
+        <v>146106</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>146106</v>
+        <v>137062</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>137062</v>
+        <v>147591</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>147591</v>
+        <v>144772</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>144772</v>
+        <v>106004</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>106004</v>
+        <v>139310</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>139310</v>
+        <v>150494</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>150494</v>
+        <v>144704</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>144704</v>
+        <v>95942</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>95942</v>
+        <v>84124</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>84124</v>
+        <v>36475</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>36475</v>
+        <v>151760</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>151760</v>
+        <v>153233</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>153233</v>
+        <v>154567</v>
       </c>
       <c r="AX12" s="16" t="n">
         <v>154567</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>154567</v>
+        <v>128351</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>128351</v>
+        <v>128996</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>128996</v>
+        <v>153895</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>153895</v>
+        <v>156237</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,47 +3674,47 @@
       <c r="AN13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>0</v>
+      <c r="AO13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR13" s="13" t="s">
-        <v>58</v>
+      <c r="AR13" s="13" t="n">
+        <v>1387</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>1387</v>
+        <v>614</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>614</v>
+        <v>42429</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>42429</v>
+        <v>151589</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>151589</v>
+        <v>156424</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>156424</v>
+        <v>141112</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>141112</v>
+        <v>147658</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>147658</v>
+        <v>72424</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>72424</v>
+        <v>88008</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>88008</v>
+        <v>143194</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>143194</v>
+        <v>155898</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,47 +3833,47 @@
       <c r="AN14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP14" s="16" t="n">
-        <v>0</v>
+      <c r="AO14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="16" t="s">
-        <v>58</v>
+      <c r="AR14" s="16" t="n">
+        <v>9188</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>9188</v>
+        <v>8388</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>8388</v>
+        <v>8178</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>8178</v>
+        <v>10634</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>10634</v>
+        <v>11034</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>11034</v>
+        <v>10882</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>10882</v>
+        <v>10764</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>10764</v>
+        <v>9461</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>9461</v>
+        <v>11443</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>11443</v>
+        <v>10627</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>10627</v>
+        <v>11423</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,47 +3992,47 @@
       <c r="AN15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP15" s="13" t="n">
-        <v>0</v>
+      <c r="AO15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="13" t="s">
-        <v>58</v>
+      <c r="AR15" s="13" t="n">
+        <v>560</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>560</v>
+        <v>1905</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>1905</v>
+        <v>2199</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>2199</v>
+        <v>3874</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>3874</v>
+        <v>3679</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>3679</v>
+        <v>6143</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>6143</v>
+        <v>5790</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>5790</v>
+        <v>10811</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>10811</v>
+        <v>6943</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>6943</v>
+        <v>6279</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>6279</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,106 +4090,106 @@
         <v>0</v>
       </c>
       <c r="U16" s="18" t="n">
-        <v>0</v>
+        <v>128464</v>
       </c>
       <c r="V16" s="18" t="n">
-        <v>128464</v>
+        <v>133739</v>
       </c>
       <c r="W16" s="18" t="n">
-        <v>133739</v>
+        <v>155023</v>
       </c>
       <c r="X16" s="18" t="n">
-        <v>155023</v>
+        <v>149237</v>
       </c>
       <c r="Y16" s="18" t="n">
-        <v>149237</v>
+        <v>156990</v>
       </c>
       <c r="Z16" s="18" t="n">
-        <v>156990</v>
+        <v>149682</v>
       </c>
       <c r="AA16" s="18" t="n">
-        <v>149682</v>
+        <v>151589</v>
       </c>
       <c r="AB16" s="18" t="n">
-        <v>151589</v>
+        <v>153272</v>
       </c>
       <c r="AC16" s="18" t="n">
-        <v>153272</v>
+        <v>168267</v>
       </c>
       <c r="AD16" s="18" t="n">
-        <v>168267</v>
+        <v>147560</v>
       </c>
       <c r="AE16" s="18" t="n">
-        <v>147560</v>
+        <v>132812</v>
       </c>
       <c r="AF16" s="18" t="n">
-        <v>132812</v>
+        <v>117921</v>
       </c>
       <c r="AG16" s="18" t="n">
-        <v>117921</v>
+        <v>73555</v>
       </c>
       <c r="AH16" s="18" t="n">
-        <v>73555</v>
+        <v>58124</v>
       </c>
       <c r="AI16" s="18" t="n">
-        <v>58124</v>
+        <v>132864</v>
       </c>
       <c r="AJ16" s="18" t="n">
-        <v>132864</v>
+        <v>151517</v>
       </c>
       <c r="AK16" s="18" t="n">
-        <v>151517</v>
+        <v>148469</v>
       </c>
       <c r="AL16" s="18" t="n">
-        <v>148469</v>
+        <v>164081</v>
       </c>
       <c r="AM16" s="18" t="n">
-        <v>164081</v>
+        <v>160152</v>
       </c>
       <c r="AN16" s="18" t="n">
-        <v>160152</v>
+        <v>125863</v>
       </c>
       <c r="AO16" s="18" t="n">
-        <v>125863</v>
+        <v>139310</v>
       </c>
       <c r="AP16" s="18" t="n">
-        <v>139310</v>
+        <v>164929</v>
       </c>
       <c r="AQ16" s="18" t="n">
-        <v>164929</v>
+        <v>156870</v>
       </c>
       <c r="AR16" s="18" t="n">
-        <v>156870</v>
+        <v>107077</v>
       </c>
       <c r="AS16" s="18" t="n">
-        <v>107077</v>
+        <v>95031</v>
       </c>
       <c r="AT16" s="18" t="n">
-        <v>95031</v>
+        <v>89281</v>
       </c>
       <c r="AU16" s="18" t="n">
-        <v>89281</v>
+        <v>317857</v>
       </c>
       <c r="AV16" s="18" t="n">
-        <v>317857</v>
+        <v>324370</v>
       </c>
       <c r="AW16" s="18" t="n">
-        <v>324370</v>
+        <v>312704</v>
       </c>
       <c r="AX16" s="18" t="n">
-        <v>312704</v>
+        <v>318779</v>
       </c>
       <c r="AY16" s="18" t="n">
-        <v>318779</v>
+        <v>221047</v>
       </c>
       <c r="AZ16" s="18" t="n">
-        <v>221047</v>
+        <v>235390</v>
       </c>
       <c r="BA16" s="18" t="n">
-        <v>235390</v>
+        <v>313995</v>
       </c>
       <c r="BB16" s="18" t="n">
-        <v>313995</v>
+        <v>323708</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,11 +4332,11 @@
       <c r="AC18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE18" s="13" t="n">
-        <v>0</v>
+      <c r="AD18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF18" s="13" t="s">
         <v>58</v>
@@ -4365,17 +4365,17 @@
       <c r="AN18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="13" t="n">
-        <v>0</v>
+      <c r="AO18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS18" s="13" t="n">
         <v>0</v>
@@ -4676,8 +4676,8 @@
       <c r="T21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="22" t="s">
-        <v>58</v>
+      <c r="U21" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V21" s="22" t="n">
         <v>0</v>
@@ -4834,106 +4834,106 @@
         <v>0</v>
       </c>
       <c r="U22" s="18" t="n">
-        <v>0</v>
+        <v>128464</v>
       </c>
       <c r="V22" s="18" t="n">
-        <v>128464</v>
+        <v>133739</v>
       </c>
       <c r="W22" s="18" t="n">
-        <v>133739</v>
+        <v>155023</v>
       </c>
       <c r="X22" s="18" t="n">
-        <v>155023</v>
+        <v>149237</v>
       </c>
       <c r="Y22" s="18" t="n">
-        <v>149237</v>
+        <v>156990</v>
       </c>
       <c r="Z22" s="18" t="n">
-        <v>156990</v>
+        <v>149682</v>
       </c>
       <c r="AA22" s="18" t="n">
-        <v>149682</v>
+        <v>151589</v>
       </c>
       <c r="AB22" s="18" t="n">
-        <v>151589</v>
+        <v>153272</v>
       </c>
       <c r="AC22" s="18" t="n">
-        <v>153272</v>
+        <v>168267</v>
       </c>
       <c r="AD22" s="18" t="n">
-        <v>168267</v>
+        <v>147560</v>
       </c>
       <c r="AE22" s="18" t="n">
-        <v>147560</v>
+        <v>132812</v>
       </c>
       <c r="AF22" s="18" t="n">
-        <v>132812</v>
+        <v>117921</v>
       </c>
       <c r="AG22" s="18" t="n">
-        <v>117921</v>
+        <v>73555</v>
       </c>
       <c r="AH22" s="18" t="n">
-        <v>73555</v>
+        <v>58124</v>
       </c>
       <c r="AI22" s="18" t="n">
-        <v>58124</v>
+        <v>132864</v>
       </c>
       <c r="AJ22" s="18" t="n">
-        <v>132864</v>
+        <v>151517</v>
       </c>
       <c r="AK22" s="18" t="n">
-        <v>151517</v>
+        <v>148469</v>
       </c>
       <c r="AL22" s="18" t="n">
-        <v>148469</v>
+        <v>164081</v>
       </c>
       <c r="AM22" s="18" t="n">
-        <v>164081</v>
+        <v>160152</v>
       </c>
       <c r="AN22" s="18" t="n">
-        <v>160152</v>
+        <v>125863</v>
       </c>
       <c r="AO22" s="18" t="n">
-        <v>125863</v>
+        <v>139310</v>
       </c>
       <c r="AP22" s="18" t="n">
-        <v>139310</v>
+        <v>164929</v>
       </c>
       <c r="AQ22" s="18" t="n">
-        <v>164929</v>
+        <v>156870</v>
       </c>
       <c r="AR22" s="18" t="n">
-        <v>156870</v>
+        <v>107077</v>
       </c>
       <c r="AS22" s="18" t="n">
-        <v>107077</v>
+        <v>95031</v>
       </c>
       <c r="AT22" s="18" t="n">
-        <v>95031</v>
+        <v>89281</v>
       </c>
       <c r="AU22" s="18" t="n">
-        <v>89281</v>
+        <v>317857</v>
       </c>
       <c r="AV22" s="18" t="n">
-        <v>317857</v>
+        <v>324370</v>
       </c>
       <c r="AW22" s="18" t="n">
-        <v>324370</v>
+        <v>312704</v>
       </c>
       <c r="AX22" s="18" t="n">
-        <v>312704</v>
+        <v>318779</v>
       </c>
       <c r="AY22" s="18" t="n">
-        <v>318779</v>
+        <v>221047</v>
       </c>
       <c r="AZ22" s="18" t="n">
-        <v>221047</v>
+        <v>235390</v>
       </c>
       <c r="BA22" s="18" t="n">
-        <v>235390</v>
+        <v>313995</v>
       </c>
       <c r="BB22" s="18" t="n">
-        <v>313995</v>
+        <v>323708</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5426,77 +5426,77 @@
       <c r="T29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U29" s="13" t="s">
-        <v>58</v>
+      <c r="U29" s="13" t="n">
+        <v>1747</v>
       </c>
       <c r="V29" s="13" t="n">
-        <v>1747</v>
+        <v>325</v>
       </c>
       <c r="W29" s="13" t="n">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="X29" s="13" t="n">
-        <v>446</v>
+        <v>1196</v>
       </c>
       <c r="Y29" s="13" t="n">
-        <v>1196</v>
+        <v>1643</v>
       </c>
       <c r="Z29" s="13" t="n">
-        <v>1643</v>
+        <v>1513</v>
       </c>
       <c r="AA29" s="13" t="n">
-        <v>1513</v>
+        <v>1700</v>
       </c>
       <c r="AB29" s="13" t="n">
-        <v>1700</v>
+        <v>1217</v>
       </c>
       <c r="AC29" s="13" t="n">
-        <v>1217</v>
+        <v>2101</v>
       </c>
       <c r="AD29" s="13" t="n">
-        <v>2101</v>
+        <v>1572</v>
       </c>
       <c r="AE29" s="13" t="n">
-        <v>1572</v>
+        <v>1799</v>
       </c>
       <c r="AF29" s="13" t="n">
-        <v>1799</v>
+        <v>20601</v>
       </c>
       <c r="AG29" s="13" t="n">
-        <v>20601</v>
+        <v>2151</v>
       </c>
       <c r="AH29" s="13" t="n">
-        <v>2151</v>
+        <v>19052</v>
       </c>
       <c r="AI29" s="13" t="n">
-        <v>19052</v>
+        <v>23399</v>
       </c>
       <c r="AJ29" s="13" t="n">
-        <v>23399</v>
+        <v>1737</v>
       </c>
       <c r="AK29" s="13" t="n">
-        <v>1737</v>
+        <v>1512</v>
       </c>
       <c r="AL29" s="13" t="n">
-        <v>1512</v>
+        <v>1156</v>
       </c>
       <c r="AM29" s="13" t="n">
-        <v>1156</v>
+        <v>1389</v>
       </c>
       <c r="AN29" s="13" t="n">
-        <v>1389</v>
+        <v>9595</v>
       </c>
       <c r="AO29" s="13" t="n">
-        <v>9595</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="13" t="n">
-        <v>0</v>
+        <v>2530</v>
       </c>
       <c r="AQ29" s="13" t="n">
-        <v>2530</v>
+        <v>3075</v>
       </c>
       <c r="AR29" s="13" t="n">
-        <v>3075</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="13" t="n">
         <v>0</v>
@@ -5585,107 +5585,107 @@
       <c r="T30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="16" t="s">
-        <v>58</v>
+      <c r="U30" s="16" t="n">
+        <v>104019</v>
       </c>
       <c r="V30" s="16" t="n">
-        <v>104019</v>
+        <v>93890</v>
       </c>
       <c r="W30" s="16" t="n">
-        <v>93890</v>
+        <v>153585</v>
       </c>
       <c r="X30" s="16" t="n">
-        <v>153585</v>
+        <v>109912</v>
       </c>
       <c r="Y30" s="16" t="n">
-        <v>109912</v>
+        <v>118143</v>
       </c>
       <c r="Z30" s="16" t="n">
-        <v>118143</v>
+        <v>94710</v>
       </c>
       <c r="AA30" s="16" t="n">
-        <v>94710</v>
+        <v>141301</v>
       </c>
       <c r="AB30" s="16" t="n">
-        <v>141301</v>
+        <v>130339</v>
       </c>
       <c r="AC30" s="16" t="n">
-        <v>130339</v>
+        <v>192726</v>
       </c>
       <c r="AD30" s="16" t="n">
-        <v>192726</v>
+        <v>70698</v>
       </c>
       <c r="AE30" s="16" t="n">
-        <v>70698</v>
+        <v>161634</v>
       </c>
       <c r="AF30" s="16" t="n">
-        <v>161634</v>
+        <v>131475</v>
       </c>
       <c r="AG30" s="16" t="n">
-        <v>131475</v>
+        <v>109408</v>
       </c>
       <c r="AH30" s="16" t="n">
-        <v>109408</v>
+        <v>81362</v>
       </c>
       <c r="AI30" s="16" t="n">
-        <v>81362</v>
+        <v>100127</v>
       </c>
       <c r="AJ30" s="16" t="n">
-        <v>100127</v>
+        <v>92852</v>
       </c>
       <c r="AK30" s="16" t="n">
-        <v>92852</v>
+        <v>152965</v>
       </c>
       <c r="AL30" s="16" t="n">
-        <v>152965</v>
+        <v>139311</v>
       </c>
       <c r="AM30" s="16" t="n">
-        <v>139311</v>
+        <v>100637</v>
       </c>
       <c r="AN30" s="16" t="n">
-        <v>100637</v>
+        <v>111113</v>
       </c>
       <c r="AO30" s="16" t="n">
-        <v>111113</v>
+        <v>50455</v>
       </c>
       <c r="AP30" s="16" t="n">
-        <v>50455</v>
+        <v>112146</v>
       </c>
       <c r="AQ30" s="16" t="n">
-        <v>112146</v>
+        <v>89097</v>
       </c>
       <c r="AR30" s="16" t="n">
-        <v>89097</v>
+        <v>27135</v>
       </c>
       <c r="AS30" s="16" t="n">
-        <v>27135</v>
+        <v>63769</v>
       </c>
       <c r="AT30" s="16" t="n">
-        <v>63769</v>
+        <v>53162</v>
       </c>
       <c r="AU30" s="16" t="n">
-        <v>53162</v>
+        <v>30677</v>
       </c>
       <c r="AV30" s="16" t="n">
-        <v>30677</v>
+        <v>100706</v>
       </c>
       <c r="AW30" s="16" t="n">
-        <v>100706</v>
+        <v>106384</v>
       </c>
       <c r="AX30" s="16" t="n">
-        <v>106384</v>
+        <v>89873</v>
       </c>
       <c r="AY30" s="16" t="n">
-        <v>89873</v>
+        <v>83093</v>
       </c>
       <c r="AZ30" s="16" t="n">
-        <v>83093</v>
+        <v>71504</v>
       </c>
       <c r="BA30" s="16" t="n">
-        <v>71504</v>
+        <v>95361</v>
       </c>
       <c r="BB30" s="16" t="n">
-        <v>95361</v>
+        <v>79285</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,23 +5804,23 @@
       <c r="AN31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP31" s="13" t="n">
-        <v>0</v>
+      <c r="AO31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR31" s="13" t="s">
-        <v>58</v>
+      <c r="AR31" s="13" t="n">
+        <v>1387</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>1387</v>
+        <v>614</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="13" t="n">
         <v>0</v>
@@ -5963,47 +5963,47 @@
       <c r="AN32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO32" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP32" s="16" t="n">
-        <v>0</v>
+      <c r="AO32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="16" t="s">
-        <v>58</v>
+      <c r="AR32" s="16" t="n">
+        <v>535</v>
       </c>
       <c r="AS32" s="16" t="n">
-        <v>535</v>
+        <v>706</v>
       </c>
       <c r="AT32" s="16" t="n">
-        <v>706</v>
+        <v>1146</v>
       </c>
       <c r="AU32" s="16" t="n">
-        <v>1146</v>
+        <v>1198</v>
       </c>
       <c r="AV32" s="16" t="n">
-        <v>1198</v>
+        <v>1090</v>
       </c>
       <c r="AW32" s="16" t="n">
-        <v>1090</v>
+        <v>1044</v>
       </c>
       <c r="AX32" s="16" t="n">
-        <v>1044</v>
+        <v>890</v>
       </c>
       <c r="AY32" s="16" t="n">
-        <v>890</v>
+        <v>588</v>
       </c>
       <c r="AZ32" s="16" t="n">
-        <v>588</v>
+        <v>1240</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>1240</v>
+        <v>1360</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>1360</v>
+        <v>836</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6122,47 +6122,47 @@
       <c r="AN33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP33" s="13" t="n">
+      <c r="AO33" s="13" t="n">
         <v>1282</v>
       </c>
+      <c r="AP33" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="13" t="s">
-        <v>58</v>
+      <c r="AR33" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>128</v>
+        <v>1888</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>1888</v>
+        <v>906</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>0</v>
+        <v>1653</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>1653</v>
+        <v>207</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>106</v>
+        <v>2577</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>2577</v>
+        <v>6959</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>6959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,106 +6220,106 @@
         <v>0</v>
       </c>
       <c r="U34" s="18" t="n">
-        <v>0</v>
+        <v>105766</v>
       </c>
       <c r="V34" s="18" t="n">
-        <v>105766</v>
+        <v>94215</v>
       </c>
       <c r="W34" s="18" t="n">
-        <v>94215</v>
+        <v>154031</v>
       </c>
       <c r="X34" s="18" t="n">
-        <v>154031</v>
+        <v>111108</v>
       </c>
       <c r="Y34" s="18" t="n">
-        <v>111108</v>
+        <v>119786</v>
       </c>
       <c r="Z34" s="18" t="n">
-        <v>119786</v>
+        <v>96223</v>
       </c>
       <c r="AA34" s="18" t="n">
-        <v>96223</v>
+        <v>143001</v>
       </c>
       <c r="AB34" s="18" t="n">
-        <v>143001</v>
+        <v>131556</v>
       </c>
       <c r="AC34" s="18" t="n">
-        <v>131556</v>
+        <v>194827</v>
       </c>
       <c r="AD34" s="18" t="n">
-        <v>194827</v>
+        <v>72270</v>
       </c>
       <c r="AE34" s="18" t="n">
-        <v>72270</v>
+        <v>163433</v>
       </c>
       <c r="AF34" s="18" t="n">
-        <v>163433</v>
+        <v>152076</v>
       </c>
       <c r="AG34" s="18" t="n">
-        <v>152076</v>
+        <v>111559</v>
       </c>
       <c r="AH34" s="18" t="n">
-        <v>111559</v>
+        <v>100414</v>
       </c>
       <c r="AI34" s="18" t="n">
-        <v>100414</v>
+        <v>123526</v>
       </c>
       <c r="AJ34" s="18" t="n">
-        <v>123526</v>
+        <v>94589</v>
       </c>
       <c r="AK34" s="18" t="n">
-        <v>94589</v>
+        <v>154477</v>
       </c>
       <c r="AL34" s="18" t="n">
-        <v>154477</v>
+        <v>140467</v>
       </c>
       <c r="AM34" s="18" t="n">
-        <v>140467</v>
+        <v>102026</v>
       </c>
       <c r="AN34" s="18" t="n">
-        <v>102026</v>
+        <v>120708</v>
       </c>
       <c r="AO34" s="18" t="n">
-        <v>120708</v>
+        <v>51737</v>
       </c>
       <c r="AP34" s="18" t="n">
-        <v>51737</v>
+        <v>114676</v>
       </c>
       <c r="AQ34" s="18" t="n">
-        <v>114676</v>
+        <v>92172</v>
       </c>
       <c r="AR34" s="18" t="n">
-        <v>92172</v>
+        <v>29057</v>
       </c>
       <c r="AS34" s="18" t="n">
-        <v>29057</v>
+        <v>65217</v>
       </c>
       <c r="AT34" s="18" t="n">
-        <v>65217</v>
+        <v>56196</v>
       </c>
       <c r="AU34" s="18" t="n">
-        <v>56196</v>
+        <v>32781</v>
       </c>
       <c r="AV34" s="18" t="n">
-        <v>32781</v>
+        <v>101796</v>
       </c>
       <c r="AW34" s="18" t="n">
-        <v>101796</v>
+        <v>109081</v>
       </c>
       <c r="AX34" s="18" t="n">
-        <v>109081</v>
+        <v>90970</v>
       </c>
       <c r="AY34" s="18" t="n">
-        <v>90970</v>
+        <v>83787</v>
       </c>
       <c r="AZ34" s="18" t="n">
-        <v>83787</v>
+        <v>75321</v>
       </c>
       <c r="BA34" s="18" t="n">
-        <v>75321</v>
+        <v>103680</v>
       </c>
       <c r="BB34" s="18" t="n">
-        <v>103680</v>
+        <v>80121</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,11 +6462,11 @@
       <c r="AC36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE36" s="13" t="n">
-        <v>0</v>
+      <c r="AD36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF36" s="13" t="s">
         <v>58</v>
@@ -6495,47 +6495,47 @@
       <c r="AN36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP36" s="13" t="n">
+      <c r="AO36" s="13" t="n">
         <v>131032</v>
       </c>
+      <c r="AP36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR36" s="13" t="s">
-        <v>58</v>
+      <c r="AR36" s="13" t="n">
+        <v>79468</v>
       </c>
       <c r="AS36" s="13" t="n">
-        <v>79468</v>
+        <v>76440</v>
       </c>
       <c r="AT36" s="13" t="n">
-        <v>76440</v>
+        <v>257</v>
       </c>
       <c r="AU36" s="13" t="n">
-        <v>257</v>
+        <v>41756</v>
       </c>
       <c r="AV36" s="13" t="n">
-        <v>41756</v>
+        <v>45076</v>
       </c>
       <c r="AW36" s="13" t="n">
-        <v>45076</v>
+        <v>18460</v>
       </c>
       <c r="AX36" s="13" t="n">
-        <v>18460</v>
+        <v>31276</v>
       </c>
       <c r="AY36" s="13" t="n">
-        <v>31276</v>
+        <v>111538</v>
       </c>
       <c r="AZ36" s="13" t="n">
-        <v>111538</v>
+        <v>51522</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>51522</v>
+        <v>172428</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>172428</v>
+        <v>34092</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6653,46 +6653,46 @@
         <v>0</v>
       </c>
       <c r="AO37" s="18" t="n">
-        <v>0</v>
+        <v>131032</v>
       </c>
       <c r="AP37" s="18" t="n">
-        <v>131032</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AR37" s="18" t="n">
-        <v>0</v>
+        <v>79468</v>
       </c>
       <c r="AS37" s="18" t="n">
-        <v>79468</v>
+        <v>76440</v>
       </c>
       <c r="AT37" s="18" t="n">
-        <v>76440</v>
+        <v>257</v>
       </c>
       <c r="AU37" s="18" t="n">
-        <v>257</v>
+        <v>41756</v>
       </c>
       <c r="AV37" s="18" t="n">
-        <v>41756</v>
+        <v>45076</v>
       </c>
       <c r="AW37" s="18" t="n">
-        <v>45076</v>
+        <v>18460</v>
       </c>
       <c r="AX37" s="18" t="n">
-        <v>18460</v>
+        <v>31276</v>
       </c>
       <c r="AY37" s="18" t="n">
-        <v>31276</v>
+        <v>111538</v>
       </c>
       <c r="AZ37" s="18" t="n">
-        <v>111538</v>
+        <v>51522</v>
       </c>
       <c r="BA37" s="18" t="n">
-        <v>51522</v>
+        <v>172428</v>
       </c>
       <c r="BB37" s="18" t="n">
-        <v>172428</v>
+        <v>34092</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6806,8 +6806,8 @@
       <c r="T39" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="22" t="s">
-        <v>58</v>
+      <c r="U39" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="22" t="n">
         <v>0</v>
@@ -7020,8 +7020,8 @@
       <c r="T41" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="22" t="s">
-        <v>58</v>
+      <c r="U41" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="22" t="n">
         <v>0</v>
@@ -7178,106 +7178,106 @@
         <v>0</v>
       </c>
       <c r="U42" s="18" t="n">
-        <v>0</v>
+        <v>105766</v>
       </c>
       <c r="V42" s="18" t="n">
-        <v>105766</v>
+        <v>94215</v>
       </c>
       <c r="W42" s="18" t="n">
-        <v>94215</v>
+        <v>154031</v>
       </c>
       <c r="X42" s="18" t="n">
-        <v>154031</v>
+        <v>111108</v>
       </c>
       <c r="Y42" s="18" t="n">
-        <v>111108</v>
+        <v>119786</v>
       </c>
       <c r="Z42" s="18" t="n">
-        <v>119786</v>
+        <v>96223</v>
       </c>
       <c r="AA42" s="18" t="n">
-        <v>96223</v>
+        <v>143001</v>
       </c>
       <c r="AB42" s="18" t="n">
-        <v>143001</v>
+        <v>131556</v>
       </c>
       <c r="AC42" s="18" t="n">
-        <v>131556</v>
+        <v>194827</v>
       </c>
       <c r="AD42" s="18" t="n">
-        <v>194827</v>
+        <v>72270</v>
       </c>
       <c r="AE42" s="18" t="n">
-        <v>72270</v>
+        <v>163433</v>
       </c>
       <c r="AF42" s="18" t="n">
-        <v>163433</v>
+        <v>152076</v>
       </c>
       <c r="AG42" s="18" t="n">
-        <v>152076</v>
+        <v>111559</v>
       </c>
       <c r="AH42" s="18" t="n">
-        <v>111559</v>
+        <v>100414</v>
       </c>
       <c r="AI42" s="18" t="n">
-        <v>100414</v>
+        <v>123526</v>
       </c>
       <c r="AJ42" s="18" t="n">
-        <v>123526</v>
+        <v>94589</v>
       </c>
       <c r="AK42" s="18" t="n">
-        <v>94589</v>
+        <v>154477</v>
       </c>
       <c r="AL42" s="18" t="n">
-        <v>154477</v>
+        <v>140467</v>
       </c>
       <c r="AM42" s="18" t="n">
-        <v>140467</v>
+        <v>102026</v>
       </c>
       <c r="AN42" s="18" t="n">
-        <v>102026</v>
+        <v>120708</v>
       </c>
       <c r="AO42" s="18" t="n">
-        <v>120708</v>
+        <v>182769</v>
       </c>
       <c r="AP42" s="18" t="n">
-        <v>182769</v>
+        <v>114676</v>
       </c>
       <c r="AQ42" s="18" t="n">
-        <v>114676</v>
+        <v>92172</v>
       </c>
       <c r="AR42" s="18" t="n">
-        <v>92172</v>
+        <v>108525</v>
       </c>
       <c r="AS42" s="18" t="n">
-        <v>108525</v>
+        <v>141657</v>
       </c>
       <c r="AT42" s="18" t="n">
-        <v>141657</v>
+        <v>56453</v>
       </c>
       <c r="AU42" s="18" t="n">
-        <v>56453</v>
+        <v>74537</v>
       </c>
       <c r="AV42" s="18" t="n">
-        <v>74537</v>
+        <v>146872</v>
       </c>
       <c r="AW42" s="18" t="n">
-        <v>146872</v>
+        <v>127541</v>
       </c>
       <c r="AX42" s="18" t="n">
-        <v>127541</v>
+        <v>122246</v>
       </c>
       <c r="AY42" s="18" t="n">
-        <v>122246</v>
+        <v>195325</v>
       </c>
       <c r="AZ42" s="18" t="n">
-        <v>195325</v>
+        <v>126843</v>
       </c>
       <c r="BA42" s="18" t="n">
-        <v>126843</v>
+        <v>276108</v>
       </c>
       <c r="BB42" s="18" t="n">
-        <v>276108</v>
+        <v>114213</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7770,77 +7770,77 @@
       <c r="T49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="13" t="s">
-        <v>58</v>
+      <c r="U49" s="13" t="n">
+        <v>8700</v>
       </c>
       <c r="V49" s="13" t="n">
-        <v>8700</v>
+        <v>282</v>
       </c>
       <c r="W49" s="13" t="n">
-        <v>282</v>
+        <v>421</v>
       </c>
       <c r="X49" s="13" t="n">
-        <v>421</v>
+        <v>1128</v>
       </c>
       <c r="Y49" s="13" t="n">
-        <v>1128</v>
+        <v>1550</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>1550</v>
+        <v>1427</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>1427</v>
+        <v>1603</v>
       </c>
       <c r="AB49" s="13" t="n">
-        <v>1603</v>
+        <v>1148</v>
       </c>
       <c r="AC49" s="13" t="n">
-        <v>1148</v>
+        <v>1132</v>
       </c>
       <c r="AD49" s="13" t="n">
-        <v>1132</v>
+        <v>1483</v>
       </c>
       <c r="AE49" s="13" t="n">
-        <v>1483</v>
+        <v>1696</v>
       </c>
       <c r="AF49" s="13" t="n">
-        <v>1696</v>
+        <v>589254</v>
       </c>
       <c r="AG49" s="13" t="n">
-        <v>589254</v>
+        <v>84441</v>
       </c>
       <c r="AH49" s="13" t="n">
-        <v>84441</v>
+        <v>1654875</v>
       </c>
       <c r="AI49" s="13" t="n">
-        <v>1654875</v>
+        <v>1885633</v>
       </c>
       <c r="AJ49" s="13" t="n">
-        <v>1885633</v>
+        <v>2605</v>
       </c>
       <c r="AK49" s="13" t="n">
-        <v>2605</v>
+        <v>2268</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>2268</v>
+        <v>132792</v>
       </c>
       <c r="AM49" s="13" t="n">
-        <v>132792</v>
+        <v>32904</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>32904</v>
+        <v>712587</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>712587</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>0</v>
+        <v>90177</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>90177</v>
+        <v>128553</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>128553</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="13" t="n">
         <v>0</v>
@@ -7929,107 +7929,107 @@
       <c r="T50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="16" t="s">
-        <v>58</v>
+      <c r="U50" s="16" t="n">
+        <v>6373495</v>
       </c>
       <c r="V50" s="16" t="n">
-        <v>6373495</v>
+        <v>6580851</v>
       </c>
       <c r="W50" s="16" t="n">
-        <v>6580851</v>
+        <v>13174788</v>
       </c>
       <c r="X50" s="16" t="n">
-        <v>13174788</v>
+        <v>10904665</v>
       </c>
       <c r="Y50" s="16" t="n">
-        <v>10904665</v>
+        <v>12660206</v>
       </c>
       <c r="Z50" s="16" t="n">
-        <v>12660206</v>
+        <v>10327807</v>
       </c>
       <c r="AA50" s="16" t="n">
-        <v>10327807</v>
+        <v>15995415</v>
       </c>
       <c r="AB50" s="16" t="n">
-        <v>15995415</v>
+        <v>16052321</v>
       </c>
       <c r="AC50" s="16" t="n">
-        <v>16052321</v>
+        <v>25612708</v>
       </c>
       <c r="AD50" s="16" t="n">
-        <v>25612708</v>
+        <v>9751370</v>
       </c>
       <c r="AE50" s="16" t="n">
-        <v>9751370</v>
+        <v>23328943</v>
       </c>
       <c r="AF50" s="16" t="n">
-        <v>23328943</v>
+        <v>18753234</v>
       </c>
       <c r="AG50" s="16" t="n">
-        <v>18753234</v>
+        <v>17066409</v>
       </c>
       <c r="AH50" s="16" t="n">
-        <v>17066409</v>
+        <v>13260170</v>
       </c>
       <c r="AI50" s="16" t="n">
-        <v>13260170</v>
+        <v>16440668</v>
       </c>
       <c r="AJ50" s="16" t="n">
-        <v>16440668</v>
+        <v>15126349</v>
       </c>
       <c r="AK50" s="16" t="n">
-        <v>15126349</v>
+        <v>24033635</v>
       </c>
       <c r="AL50" s="16" t="n">
-        <v>24033635</v>
+        <v>21969882</v>
       </c>
       <c r="AM50" s="16" t="n">
-        <v>21969882</v>
+        <v>15807564</v>
       </c>
       <c r="AN50" s="16" t="n">
-        <v>15807564</v>
+        <v>16558749</v>
       </c>
       <c r="AO50" s="16" t="n">
-        <v>16558749</v>
+        <v>7970067</v>
       </c>
       <c r="AP50" s="16" t="n">
-        <v>7970067</v>
+        <v>16921470</v>
       </c>
       <c r="AQ50" s="16" t="n">
-        <v>16921470</v>
+        <v>14125830</v>
       </c>
       <c r="AR50" s="16" t="n">
-        <v>14125830</v>
+        <v>4533638</v>
       </c>
       <c r="AS50" s="16" t="n">
-        <v>4533638</v>
+        <v>10861398</v>
       </c>
       <c r="AT50" s="16" t="n">
-        <v>10861398</v>
+        <v>8237268</v>
       </c>
       <c r="AU50" s="16" t="n">
-        <v>8237268</v>
+        <v>3854352</v>
       </c>
       <c r="AV50" s="16" t="n">
-        <v>3854352</v>
+        <v>12087617</v>
       </c>
       <c r="AW50" s="16" t="n">
-        <v>12087617</v>
+        <v>13557822</v>
       </c>
       <c r="AX50" s="16" t="n">
-        <v>13557822</v>
+        <v>12047703</v>
       </c>
       <c r="AY50" s="16" t="n">
-        <v>12047703</v>
+        <v>11063606</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>11063606</v>
+        <v>11107236</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>11107236</v>
+        <v>17731971</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>17731971</v>
+        <v>16131596</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8148,26 +8148,26 @@
       <c r="AN51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP51" s="13" t="n">
-        <v>0</v>
+      <c r="AO51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="13" t="s">
-        <v>58</v>
+      <c r="AR51" s="13" t="n">
+        <v>130997</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>130997</v>
+        <v>80560</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>80560</v>
+        <v>-4221</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>-4221</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="13" t="n">
         <v>0</v>
@@ -8307,47 +8307,47 @@
       <c r="AN52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP52" s="16" t="n">
-        <v>0</v>
+      <c r="AO52" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR52" s="16" t="s">
-        <v>58</v>
+      <c r="AR52" s="16" t="n">
+        <v>1563</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>1563</v>
+        <v>2062</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>2062</v>
+        <v>3348</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>3348</v>
+        <v>3499</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>3499</v>
+        <v>3182</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>3182</v>
+        <v>3049</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>3049</v>
+        <v>2599</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>2599</v>
+        <v>1718</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>1718</v>
+        <v>3620</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>3620</v>
+        <v>3971</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>3971</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,47 +8466,47 @@
       <c r="AN53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP53" s="13" t="n">
+      <c r="AO53" s="13" t="n">
         <v>58466</v>
       </c>
+      <c r="AP53" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="13" t="s">
-        <v>58</v>
+      <c r="AR53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>0</v>
+        <v>6796</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>6796</v>
+        <v>105861</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>105861</v>
+        <v>50606</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>50606</v>
+        <v>-12317</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>-12317</v>
+        <v>72523</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>72523</v>
+        <v>9089</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>9089</v>
+        <v>4640</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>4640</v>
+        <v>117657</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>117657</v>
+        <v>332789</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>332789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8564,106 +8564,106 @@
         <v>0</v>
       </c>
       <c r="U54" s="18" t="n">
-        <v>0</v>
+        <v>6382195</v>
       </c>
       <c r="V54" s="18" t="n">
-        <v>6382195</v>
+        <v>6581133</v>
       </c>
       <c r="W54" s="18" t="n">
-        <v>6581133</v>
+        <v>13175209</v>
       </c>
       <c r="X54" s="18" t="n">
-        <v>13175209</v>
+        <v>10905793</v>
       </c>
       <c r="Y54" s="18" t="n">
-        <v>10905793</v>
+        <v>12661756</v>
       </c>
       <c r="Z54" s="18" t="n">
-        <v>12661756</v>
+        <v>10329234</v>
       </c>
       <c r="AA54" s="18" t="n">
-        <v>10329234</v>
+        <v>15997018</v>
       </c>
       <c r="AB54" s="18" t="n">
-        <v>15997018</v>
+        <v>16053469</v>
       </c>
       <c r="AC54" s="18" t="n">
-        <v>16053469</v>
+        <v>25613840</v>
       </c>
       <c r="AD54" s="18" t="n">
-        <v>25613840</v>
+        <v>9752853</v>
       </c>
       <c r="AE54" s="18" t="n">
-        <v>9752853</v>
+        <v>23330639</v>
       </c>
       <c r="AF54" s="18" t="n">
-        <v>23330639</v>
+        <v>19342488</v>
       </c>
       <c r="AG54" s="18" t="n">
-        <v>19342488</v>
+        <v>17150850</v>
       </c>
       <c r="AH54" s="18" t="n">
-        <v>17150850</v>
+        <v>14915045</v>
       </c>
       <c r="AI54" s="18" t="n">
-        <v>14915045</v>
+        <v>18326301</v>
       </c>
       <c r="AJ54" s="18" t="n">
-        <v>18326301</v>
+        <v>15128954</v>
       </c>
       <c r="AK54" s="18" t="n">
-        <v>15128954</v>
+        <v>24035903</v>
       </c>
       <c r="AL54" s="18" t="n">
-        <v>24035903</v>
+        <v>22102674</v>
       </c>
       <c r="AM54" s="18" t="n">
-        <v>22102674</v>
+        <v>15840468</v>
       </c>
       <c r="AN54" s="18" t="n">
-        <v>15840468</v>
+        <v>17271336</v>
       </c>
       <c r="AO54" s="18" t="n">
-        <v>17271336</v>
+        <v>8028533</v>
       </c>
       <c r="AP54" s="18" t="n">
-        <v>8028533</v>
+        <v>17011647</v>
       </c>
       <c r="AQ54" s="18" t="n">
-        <v>17011647</v>
+        <v>14254383</v>
       </c>
       <c r="AR54" s="18" t="n">
-        <v>14254383</v>
+        <v>4666198</v>
       </c>
       <c r="AS54" s="18" t="n">
-        <v>4666198</v>
+        <v>10950816</v>
       </c>
       <c r="AT54" s="18" t="n">
-        <v>10950816</v>
+        <v>8342256</v>
       </c>
       <c r="AU54" s="18" t="n">
-        <v>8342256</v>
+        <v>3908457</v>
       </c>
       <c r="AV54" s="18" t="n">
-        <v>3908457</v>
+        <v>12078482</v>
       </c>
       <c r="AW54" s="18" t="n">
-        <v>12078482</v>
+        <v>13633394</v>
       </c>
       <c r="AX54" s="18" t="n">
-        <v>13633394</v>
+        <v>12059391</v>
       </c>
       <c r="AY54" s="18" t="n">
-        <v>12059391</v>
+        <v>11069964</v>
       </c>
       <c r="AZ54" s="18" t="n">
-        <v>11069964</v>
+        <v>11228513</v>
       </c>
       <c r="BA54" s="18" t="n">
-        <v>11228513</v>
+        <v>18068731</v>
       </c>
       <c r="BB54" s="18" t="n">
-        <v>18068731</v>
+        <v>16134038</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8806,8 +8806,8 @@
       <c r="AC56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD56" s="13" t="s">
-        <v>58</v>
+      <c r="AD56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE56" s="13" t="n">
         <v>0</v>
@@ -8840,46 +8840,46 @@
         <v>0</v>
       </c>
       <c r="AO56" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP56" s="13" t="n">
         <v>16345243</v>
       </c>
+      <c r="AP56" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="13" t="s">
-        <v>58</v>
+      <c r="AR56" s="13" t="n">
+        <v>12818688</v>
       </c>
       <c r="AS56" s="13" t="n">
-        <v>12818688</v>
+        <v>13104958</v>
       </c>
       <c r="AT56" s="13" t="n">
-        <v>13104958</v>
+        <v>33473</v>
       </c>
       <c r="AU56" s="13" t="n">
-        <v>33473</v>
+        <v>4827138</v>
       </c>
       <c r="AV56" s="13" t="n">
-        <v>4827138</v>
+        <v>7876885</v>
       </c>
       <c r="AW56" s="13" t="n">
-        <v>7876885</v>
+        <v>2173162</v>
       </c>
       <c r="AX56" s="13" t="n">
-        <v>2173162</v>
+        <v>3733739</v>
       </c>
       <c r="AY56" s="13" t="n">
-        <v>3733739</v>
+        <v>12914803</v>
       </c>
       <c r="AZ56" s="13" t="n">
-        <v>12914803</v>
+        <v>5827837</v>
       </c>
       <c r="BA56" s="13" t="n">
-        <v>5827837</v>
+        <v>26466300</v>
       </c>
       <c r="BB56" s="13" t="n">
-        <v>26466300</v>
+        <v>7035634</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8997,46 +8997,46 @@
         <v>0</v>
       </c>
       <c r="AO57" s="18" t="n">
-        <v>0</v>
+        <v>16345243</v>
       </c>
       <c r="AP57" s="18" t="n">
-        <v>16345243</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AR57" s="18" t="n">
-        <v>0</v>
+        <v>12818688</v>
       </c>
       <c r="AS57" s="18" t="n">
-        <v>12818688</v>
+        <v>13104958</v>
       </c>
       <c r="AT57" s="18" t="n">
-        <v>13104958</v>
+        <v>33473</v>
       </c>
       <c r="AU57" s="18" t="n">
-        <v>33473</v>
+        <v>4827138</v>
       </c>
       <c r="AV57" s="18" t="n">
-        <v>4827138</v>
+        <v>7876885</v>
       </c>
       <c r="AW57" s="18" t="n">
-        <v>7876885</v>
+        <v>2173162</v>
       </c>
       <c r="AX57" s="18" t="n">
-        <v>2173162</v>
+        <v>3733739</v>
       </c>
       <c r="AY57" s="18" t="n">
-        <v>3733739</v>
+        <v>12914803</v>
       </c>
       <c r="AZ57" s="18" t="n">
-        <v>12914803</v>
+        <v>5827837</v>
       </c>
       <c r="BA57" s="18" t="n">
-        <v>5827837</v>
+        <v>26466300</v>
       </c>
       <c r="BB57" s="18" t="n">
-        <v>26466300</v>
+        <v>7035634</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9152,8 +9152,8 @@
       <c r="T59" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="22" t="s">
-        <v>58</v>
+      <c r="U59" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V59" s="23" t="n">
         <v>0</v>
@@ -9368,8 +9368,8 @@
       <c r="T61" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="22" t="s">
-        <v>58</v>
+      <c r="U61" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="23" t="n">
         <v>0</v>
@@ -9584,8 +9584,8 @@
       <c r="T63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>58</v>
+      <c r="U63" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V63" s="13" t="n">
         <v>0</v>
@@ -9742,106 +9742,106 @@
         <v>0</v>
       </c>
       <c r="U64" s="18" t="n">
-        <v>0</v>
+        <v>6382195</v>
       </c>
       <c r="V64" s="18" t="n">
-        <v>6382195</v>
+        <v>6581133</v>
       </c>
       <c r="W64" s="18" t="n">
-        <v>6581133</v>
+        <v>13175209</v>
       </c>
       <c r="X64" s="18" t="n">
-        <v>13175209</v>
+        <v>10905793</v>
       </c>
       <c r="Y64" s="18" t="n">
-        <v>10905793</v>
+        <v>12661756</v>
       </c>
       <c r="Z64" s="18" t="n">
-        <v>12661756</v>
+        <v>10329234</v>
       </c>
       <c r="AA64" s="18" t="n">
-        <v>10329234</v>
+        <v>15997018</v>
       </c>
       <c r="AB64" s="18" t="n">
-        <v>15997018</v>
+        <v>16053469</v>
       </c>
       <c r="AC64" s="18" t="n">
-        <v>16053469</v>
+        <v>25613840</v>
       </c>
       <c r="AD64" s="18" t="n">
-        <v>25613840</v>
+        <v>9752853</v>
       </c>
       <c r="AE64" s="18" t="n">
-        <v>9752853</v>
+        <v>23330639</v>
       </c>
       <c r="AF64" s="18" t="n">
-        <v>23330639</v>
+        <v>19342488</v>
       </c>
       <c r="AG64" s="18" t="n">
-        <v>19342488</v>
+        <v>17150850</v>
       </c>
       <c r="AH64" s="18" t="n">
-        <v>17150850</v>
+        <v>14915045</v>
       </c>
       <c r="AI64" s="18" t="n">
-        <v>14915045</v>
+        <v>18326301</v>
       </c>
       <c r="AJ64" s="18" t="n">
-        <v>18326301</v>
+        <v>15128954</v>
       </c>
       <c r="AK64" s="18" t="n">
-        <v>15128954</v>
+        <v>24035903</v>
       </c>
       <c r="AL64" s="18" t="n">
-        <v>24035903</v>
+        <v>22102674</v>
       </c>
       <c r="AM64" s="18" t="n">
-        <v>22102674</v>
+        <v>15840468</v>
       </c>
       <c r="AN64" s="18" t="n">
-        <v>15840468</v>
+        <v>17271336</v>
       </c>
       <c r="AO64" s="18" t="n">
-        <v>17271336</v>
+        <v>24373776</v>
       </c>
       <c r="AP64" s="18" t="n">
-        <v>24373776</v>
+        <v>17011647</v>
       </c>
       <c r="AQ64" s="18" t="n">
-        <v>17011647</v>
+        <v>14254383</v>
       </c>
       <c r="AR64" s="18" t="n">
-        <v>14254383</v>
+        <v>17484886</v>
       </c>
       <c r="AS64" s="18" t="n">
-        <v>17484886</v>
+        <v>24055774</v>
       </c>
       <c r="AT64" s="18" t="n">
-        <v>24055774</v>
+        <v>8375729</v>
       </c>
       <c r="AU64" s="18" t="n">
-        <v>8375729</v>
+        <v>8735595</v>
       </c>
       <c r="AV64" s="18" t="n">
-        <v>8735595</v>
+        <v>19955367</v>
       </c>
       <c r="AW64" s="18" t="n">
-        <v>19955367</v>
+        <v>15806556</v>
       </c>
       <c r="AX64" s="18" t="n">
-        <v>15806556</v>
+        <v>15793130</v>
       </c>
       <c r="AY64" s="18" t="n">
-        <v>15793130</v>
+        <v>23984767</v>
       </c>
       <c r="AZ64" s="18" t="n">
-        <v>23984767</v>
+        <v>17056350</v>
       </c>
       <c r="BA64" s="18" t="n">
-        <v>17056350</v>
+        <v>44535031</v>
       </c>
       <c r="BB64" s="18" t="n">
-        <v>44535031</v>
+        <v>23169672</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10334,77 +10334,77 @@
       <c r="T71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="13" t="s">
-        <v>58</v>
+      <c r="U71" s="13" t="n">
+        <v>4979966</v>
       </c>
       <c r="V71" s="13" t="n">
-        <v>4979966</v>
+        <v>867692</v>
       </c>
       <c r="W71" s="13" t="n">
-        <v>867692</v>
+        <v>943946</v>
       </c>
       <c r="X71" s="13" t="n">
-        <v>943946</v>
+        <v>943144</v>
       </c>
       <c r="Y71" s="13" t="n">
-        <v>943144</v>
+        <v>943396</v>
       </c>
       <c r="Z71" s="13" t="n">
-        <v>943396</v>
+        <v>943159</v>
       </c>
       <c r="AA71" s="13" t="n">
-        <v>943159</v>
+        <v>942941</v>
       </c>
       <c r="AB71" s="13" t="n">
-        <v>942941</v>
+        <v>943303</v>
       </c>
       <c r="AC71" s="13" t="n">
-        <v>943303</v>
+        <v>538791</v>
       </c>
       <c r="AD71" s="13" t="n">
-        <v>538791</v>
+        <v>943384</v>
       </c>
       <c r="AE71" s="13" t="n">
-        <v>943384</v>
+        <v>942746</v>
       </c>
       <c r="AF71" s="13" t="n">
-        <v>942746</v>
+        <v>28603175</v>
       </c>
       <c r="AG71" s="13" t="n">
-        <v>28603175</v>
+        <v>39256625</v>
       </c>
       <c r="AH71" s="13" t="n">
-        <v>39256625</v>
+        <v>86860959</v>
       </c>
       <c r="AI71" s="13" t="n">
-        <v>86860959</v>
+        <v>80586051</v>
       </c>
       <c r="AJ71" s="13" t="n">
-        <v>80586051</v>
+        <v>1499712</v>
       </c>
       <c r="AK71" s="13" t="n">
-        <v>1499712</v>
+        <v>1500000</v>
       </c>
       <c r="AL71" s="13" t="n">
-        <v>1500000</v>
+        <v>114871972</v>
       </c>
       <c r="AM71" s="13" t="n">
-        <v>114871972</v>
+        <v>23688985</v>
       </c>
       <c r="AN71" s="13" t="n">
-        <v>23688985</v>
-      </c>
-      <c r="AO71" s="13" t="n">
         <v>74266493</v>
       </c>
-      <c r="AP71" s="13" t="s">
-        <v>58</v>
+      <c r="AO71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP71" s="13" t="n">
+        <v>35643083</v>
       </c>
       <c r="AQ71" s="13" t="n">
-        <v>35643083</v>
-      </c>
-      <c r="AR71" s="13" t="n">
         <v>41805854</v>
+      </c>
+      <c r="AR71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS71" s="13" t="s">
         <v>58</v>
@@ -10493,107 +10493,107 @@
       <c r="T72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="16" t="s">
-        <v>58</v>
+      <c r="U72" s="16" t="n">
+        <v>61272412</v>
       </c>
       <c r="V72" s="16" t="n">
-        <v>61272412</v>
+        <v>70091075</v>
       </c>
       <c r="W72" s="16" t="n">
-        <v>70091075</v>
+        <v>85781737</v>
       </c>
       <c r="X72" s="16" t="n">
-        <v>85781737</v>
+        <v>99212688</v>
       </c>
       <c r="Y72" s="16" t="n">
-        <v>99212688</v>
+        <v>107160018</v>
       </c>
       <c r="Z72" s="16" t="n">
-        <v>107160018</v>
+        <v>109046637</v>
       </c>
       <c r="AA72" s="16" t="n">
-        <v>109046637</v>
+        <v>113201004</v>
       </c>
       <c r="AB72" s="16" t="n">
-        <v>113201004</v>
+        <v>123158234</v>
       </c>
       <c r="AC72" s="16" t="n">
-        <v>123158234</v>
+        <v>132897004</v>
       </c>
       <c r="AD72" s="16" t="n">
-        <v>132897004</v>
+        <v>137929927</v>
       </c>
       <c r="AE72" s="16" t="n">
-        <v>137929927</v>
+        <v>144331904</v>
       </c>
       <c r="AF72" s="16" t="n">
-        <v>144331904</v>
+        <v>142637262</v>
       </c>
       <c r="AG72" s="16" t="n">
-        <v>142637262</v>
+        <v>155988675</v>
       </c>
       <c r="AH72" s="16" t="n">
-        <v>155988675</v>
+        <v>162977434</v>
       </c>
       <c r="AI72" s="16" t="n">
-        <v>162977434</v>
+        <v>164198148</v>
       </c>
       <c r="AJ72" s="16" t="n">
-        <v>164198148</v>
+        <v>162908166</v>
       </c>
       <c r="AK72" s="16" t="n">
-        <v>162908166</v>
+        <v>157118524</v>
       </c>
       <c r="AL72" s="16" t="n">
-        <v>157118524</v>
+        <v>157703857</v>
       </c>
       <c r="AM72" s="16" t="n">
-        <v>157703857</v>
+        <v>157075072</v>
       </c>
       <c r="AN72" s="16" t="n">
-        <v>157075072</v>
+        <v>149026208</v>
       </c>
       <c r="AO72" s="16" t="n">
-        <v>149026208</v>
+        <v>157963869</v>
       </c>
       <c r="AP72" s="16" t="n">
-        <v>157963869</v>
+        <v>150887860</v>
       </c>
       <c r="AQ72" s="16" t="n">
-        <v>150887860</v>
+        <v>158544395</v>
       </c>
       <c r="AR72" s="16" t="n">
-        <v>158544395</v>
+        <v>167077133</v>
       </c>
       <c r="AS72" s="16" t="n">
-        <v>167077133</v>
+        <v>170324107</v>
       </c>
       <c r="AT72" s="16" t="n">
-        <v>170324107</v>
+        <v>154946541</v>
       </c>
       <c r="AU72" s="16" t="n">
-        <v>154946541</v>
+        <v>125643055</v>
       </c>
       <c r="AV72" s="16" t="n">
-        <v>125643055</v>
+        <v>120028767</v>
       </c>
       <c r="AW72" s="16" t="n">
-        <v>120028767</v>
+        <v>127442303</v>
       </c>
       <c r="AX72" s="16" t="n">
-        <v>127442303</v>
+        <v>134052530</v>
       </c>
       <c r="AY72" s="16" t="n">
-        <v>134052530</v>
+        <v>133147269</v>
       </c>
       <c r="AZ72" s="16" t="n">
-        <v>133147269</v>
+        <v>155337268</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>155337268</v>
+        <v>185945733</v>
       </c>
       <c r="BB72" s="16" t="n">
-        <v>185945733</v>
+        <v>203463404</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10721,14 +10721,14 @@
       <c r="AQ73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR73" s="13" t="s">
-        <v>58</v>
+      <c r="AR73" s="13" t="n">
+        <v>94446287</v>
       </c>
       <c r="AS73" s="13" t="n">
-        <v>94446287</v>
-      </c>
-      <c r="AT73" s="13" t="n">
         <v>131205212</v>
+      </c>
+      <c r="AT73" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU73" s="13" t="s">
         <v>58</v>
@@ -10880,38 +10880,38 @@
       <c r="AQ74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR74" s="16" t="s">
-        <v>58</v>
+      <c r="AR74" s="16" t="n">
+        <v>2921495</v>
       </c>
       <c r="AS74" s="16" t="n">
-        <v>2921495</v>
+        <v>2920680</v>
       </c>
       <c r="AT74" s="16" t="n">
-        <v>2920680</v>
+        <v>2921466</v>
       </c>
       <c r="AU74" s="16" t="n">
-        <v>2921466</v>
+        <v>2920701</v>
       </c>
       <c r="AV74" s="16" t="n">
-        <v>2920701</v>
+        <v>2919266</v>
       </c>
       <c r="AW74" s="16" t="n">
-        <v>2919266</v>
+        <v>2920498</v>
       </c>
       <c r="AX74" s="16" t="n">
-        <v>2920498</v>
+        <v>2920225</v>
       </c>
       <c r="AY74" s="16" t="n">
-        <v>2920225</v>
+        <v>2921769</v>
       </c>
       <c r="AZ74" s="16" t="n">
-        <v>2921769</v>
+        <v>2919355</v>
       </c>
       <c r="BA74" s="16" t="n">
-        <v>2919355</v>
+        <v>2919853</v>
       </c>
       <c r="BB74" s="16" t="n">
-        <v>2919853</v>
+        <v>2921053</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11030,47 +11030,47 @@
       <c r="AN75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP75" s="13" t="n">
+      <c r="AO75" s="13" t="n">
         <v>45605304</v>
       </c>
+      <c r="AP75" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ75" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AR75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS75" s="13" t="s">
-        <v>58</v>
+      <c r="AS75" s="13" t="n">
+        <v>53093750</v>
       </c>
       <c r="AT75" s="13" t="n">
-        <v>53093750</v>
+        <v>56070445</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>56070445</v>
-      </c>
-      <c r="AV75" s="13" t="n">
         <v>55856512</v>
       </c>
-      <c r="AW75" s="13" t="s">
-        <v>58</v>
+      <c r="AV75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW75" s="13" t="n">
+        <v>43873563</v>
       </c>
       <c r="AX75" s="13" t="n">
-        <v>43873563</v>
+        <v>43908213</v>
       </c>
       <c r="AY75" s="13" t="n">
-        <v>43908213</v>
+        <v>43773585</v>
       </c>
       <c r="AZ75" s="13" t="n">
-        <v>43773585</v>
+        <v>45656577</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>45656577</v>
-      </c>
-      <c r="BB75" s="13" t="n">
         <v>47821382</v>
+      </c>
+      <c r="BB75" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11246,47 +11246,47 @@
       <c r="AN77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP77" s="13" t="n">
+      <c r="AO77" s="13" t="n">
         <v>124742376</v>
       </c>
+      <c r="AP77" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="13" t="s">
-        <v>58</v>
+      <c r="AR77" s="13" t="n">
+        <v>161306287</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>161306287</v>
+        <v>171441104</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>171441104</v>
+        <v>130245136</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>130245136</v>
+        <v>115603458</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>115603458</v>
+        <v>174746761</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>174746761</v>
+        <v>117722752</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>117722752</v>
+        <v>119380324</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>119380324</v>
+        <v>115788368</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>115788368</v>
+        <v>113113563</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>113113563</v>
+        <v>153491892</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>153491892</v>
+        <v>206371993</v>
       </c>
     </row>
   </sheetData>
